--- a/学习日志.xlsx
+++ b/学习日志.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="28">
   <si>
     <t>日期</t>
   </si>
@@ -52,14 +52,36 @@
   </si>
   <si>
     <t>Spring框架查漏补缺,
-每天20p,约5天完成.
-xmind辅助学习.</t>
+每天20p, 约5天完成.
+xmind辅助学习.
+https://www.bilibili.com/video/BV1nz4y1d7uy?p=44&amp;spm_id_from=pageDriver</t>
   </si>
   <si>
     <t>19日</t>
   </si>
   <si>
+    <t>复习18日内容.
+JVM, JRE, JDK.
+Oracle JDK, OpenJDK.</t>
+  </si>
+  <si>
+    <t>24-29p.
+引用类型属性自动注入, 常用方式byName, byType.
+基于注解的DI, 使用步骤, 常用注解.</t>
+  </si>
+  <si>
     <t>20日</t>
+  </si>
+  <si>
+    <t>复习18-19日内容.
+java和c++的异同.
+java程序的主类, 应用程序和小程序主类的区别.</t>
+  </si>
+  <si>
+    <t>30-43p.
+基于注解的DI, 常用注解(创建对象, 简单与引用类型属性注入). 基于注解与xml的依赖注入方法对比, 优缺点.
+AOP概述, 是什么, 功能, 动态代理是什么, 功能.
+复习18-20日内容.</t>
   </si>
   <si>
     <t>21日</t>
@@ -100,8 +122,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
@@ -122,6 +144,21 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
@@ -136,57 +173,49 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -213,11 +242,18 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -229,38 +265,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -275,31 +297,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -311,151 +471,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -521,17 +543,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -570,18 +586,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -589,8 +594,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -612,9 +617,26 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -624,10 +646,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -636,133 +658,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="27" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="27" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="26" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1114,14 +1136,14 @@
   <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" outlineLevelCol="5"/>
   <cols>
     <col min="1" max="1" width="11.8888888888889" style="1" customWidth="1"/>
     <col min="2" max="2" width="5.66666666666667" style="1" customWidth="1"/>
-    <col min="3" max="3" width="19.1296296296296" style="2" customWidth="1"/>
+    <col min="3" max="3" width="20.7685185185185" style="2" customWidth="1"/>
     <col min="4" max="4" width="55.287037037037" style="2" customWidth="1"/>
     <col min="5" max="5" width="33.0740740740741" style="1" customWidth="1"/>
     <col min="6" max="6" width="19.8611111111111" style="1" customWidth="1"/>
@@ -1178,86 +1200,98 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" ht="41.4" spans="1:6">
       <c r="A4" s="5"/>
       <c r="B4" s="1" t="s">
         <v>11</v>
       </c>
+      <c r="C4" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>13</v>
+      </c>
       <c r="F4" s="7"/>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" ht="69" spans="1:6">
       <c r="A5" s="5"/>
       <c r="B5" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>16</v>
       </c>
       <c r="F5" s="7"/>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="5"/>
       <c r="B6" s="1" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="F6" s="7"/>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="5"/>
       <c r="B7" s="1" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="F7" s="8"/>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="5"/>
       <c r="B8" s="1" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="5"/>
       <c r="B9" s="1" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="5"/>
       <c r="B10" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="5"/>
       <c r="B11" s="1" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="5"/>
       <c r="B12" s="1" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="5"/>
       <c r="B13" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="5"/>
       <c r="B14" s="1" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="5"/>
       <c r="B15" s="1" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="5"/>
       <c r="B16" s="1" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>

--- a/学习日志.xlsx
+++ b/学习日志.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="30">
   <si>
     <t>日期</t>
   </si>
@@ -75,7 +75,7 @@
   <si>
     <t>复习18-19日内容.
 java和c++的异同.
-java程序的主类, 应用程序和小程序主类的区别.</t>
+java程序的主类.</t>
   </si>
   <si>
     <t>30-43p.
@@ -85,6 +85,15 @@
   </si>
   <si>
     <t>21日</t>
+  </si>
+  <si>
+    <t>复习18-20日内容.
+字符常量和字符串常量的区别.</t>
+  </si>
+  <si>
+    <t>44-55p
+动态代理的实现方式: JDK动态代理和CGlib动态代理.
+动态代理的实现框架: aspectJ框架, 在spring框架中的使用方法.</t>
   </si>
   <si>
     <t>22日</t>
@@ -122,12 +131,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -136,9 +145,114 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="11"/>
+      <sz val="12"/>
       <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -152,22 +266,25 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -175,107 +292,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -297,187 +313,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -547,6 +563,17 @@
       <right/>
       <top/>
       <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -563,6 +590,15 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -586,16 +622,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -611,17 +638,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -646,10 +662,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -658,160 +674,166 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="26" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="26" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="57" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="57" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1135,18 +1157,18 @@
   <sheetPr/>
   <dimension ref="A1:F16"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="1" width="11.8888888888889" style="1" customWidth="1"/>
-    <col min="2" max="2" width="5.66666666666667" style="1" customWidth="1"/>
-    <col min="3" max="3" width="20.7685185185185" style="2" customWidth="1"/>
-    <col min="4" max="4" width="55.287037037037" style="2" customWidth="1"/>
-    <col min="5" max="5" width="33.0740740740741" style="1" customWidth="1"/>
-    <col min="6" max="6" width="19.8611111111111" style="1" customWidth="1"/>
+    <col min="1" max="1" width="13.8888888888889" style="1" customWidth="1"/>
+    <col min="2" max="2" width="5.44444444444444" style="1" customWidth="1"/>
+    <col min="3" max="3" width="26.8611111111111" style="2" customWidth="1"/>
+    <col min="4" max="4" width="59.4166666666667" style="2" customWidth="1"/>
+    <col min="5" max="5" width="35.7407407407407" style="1" customWidth="1"/>
+    <col min="6" max="6" width="25.3333333333333" style="1" customWidth="1"/>
     <col min="7" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
@@ -1180,118 +1202,124 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" ht="41.4" spans="1:6">
+    <row r="3" ht="46.8" spans="1:6">
       <c r="A3" s="5">
         <v>44531</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="E3" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="F3" s="6" t="s">
+      <c r="F3" s="8" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="4" ht="41.4" spans="1:6">
+    <row r="4" ht="46.8" spans="1:6">
       <c r="A4" s="5"/>
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D4" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="F4" s="7"/>
-    </row>
-    <row r="5" ht="69" spans="1:6">
+      <c r="F4" s="9"/>
+    </row>
+    <row r="5" ht="78" spans="1:6">
       <c r="A5" s="5"/>
-      <c r="B5" s="1" t="s">
+      <c r="B5" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="D5" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="F5" s="7"/>
-    </row>
-    <row r="6" spans="1:6">
+      <c r="F5" s="9"/>
+    </row>
+    <row r="6" ht="62.4" spans="1:6">
       <c r="A6" s="5"/>
-      <c r="B6" s="1" t="s">
+      <c r="B6" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="F6" s="7"/>
+      <c r="C6" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F6" s="9"/>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="5"/>
-      <c r="B7" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F7" s="8"/>
+      <c r="B7" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="F7" s="10"/>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="5"/>
-      <c r="B8" s="1" t="s">
-        <v>19</v>
+      <c r="B8" s="6" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="5"/>
-      <c r="B9" s="1" t="s">
-        <v>20</v>
+      <c r="B9" s="6" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="5"/>
-      <c r="B10" s="1" t="s">
-        <v>21</v>
+      <c r="B10" s="6" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="5"/>
-      <c r="B11" s="1" t="s">
-        <v>22</v>
+      <c r="B11" s="6" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="5"/>
-      <c r="B12" s="1" t="s">
-        <v>23</v>
+      <c r="B12" s="6" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="5"/>
-      <c r="B13" s="1" t="s">
-        <v>24</v>
+      <c r="B13" s="6" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="5"/>
-      <c r="B14" s="1" t="s">
-        <v>25</v>
+      <c r="B14" s="6" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="5"/>
-      <c r="B15" s="1" t="s">
-        <v>26</v>
+      <c r="B15" s="6" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="5"/>
-      <c r="B16" s="1" t="s">
-        <v>27</v>
+      <c r="B16" s="6" t="s">
+        <v>29</v>
       </c>
     </row>
   </sheetData>

--- a/学习日志.xlsx
+++ b/学习日志.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="35">
   <si>
     <t>日期</t>
   </si>
@@ -99,13 +99,33 @@
     <t>22日</t>
   </si>
   <si>
+    <t>复习18-21日内容.
+重载重写.</t>
+  </si>
+  <si>
+    <t>56-83p.
+spring整合mybatis</t>
+  </si>
+  <si>
     <t>23日</t>
   </si>
   <si>
+    <t>复习18-22日内容.
+封装继承多态.</t>
+  </si>
+  <si>
     <t>24日</t>
   </si>
   <si>
+    <t>复习重写,面向对象三大特性.
+String, StringBuilder, StringBuffer区别.</t>
+  </si>
+  <si>
     <t>25日</t>
+  </si>
+  <si>
+    <t>复习重写,面向对象三大特性, String, StringBuilder, StringBuffer区别.
+自动装箱和拆箱, 为什么静态方法中调用非静态成员是非法的.</t>
   </si>
   <si>
     <t>26日</t>
@@ -133,8 +153,8 @@
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -160,6 +180,64 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
@@ -169,59 +247,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -235,13 +261,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -290,15 +309,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -313,43 +333,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -361,139 +513,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -562,19 +582,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -590,15 +599,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -623,6 +623,15 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -656,6 +665,17 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -665,7 +685,7 @@
     <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -674,133 +694,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="23" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -821,20 +841,20 @@
     <xf numFmtId="57" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1157,8 +1177,8 @@
   <sheetPr/>
   <dimension ref="A1:F16"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" outlineLevelCol="5"/>
@@ -1206,127 +1226,144 @@
       <c r="A3" s="5">
         <v>44531</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="C3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="7" t="s">
+      <c r="D3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E3" s="6" t="s">
+      <c r="E3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F3" s="8" t="s">
+      <c r="F3" s="6" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="4" ht="46.8" spans="1:6">
       <c r="A4" s="5"/>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="C4" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="7" t="s">
+      <c r="D4" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F4" s="9"/>
+      <c r="F4" s="7"/>
     </row>
     <row r="5" ht="78" spans="1:6">
       <c r="A5" s="5"/>
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="7" t="s">
+      <c r="C5" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D5" s="7" t="s">
+      <c r="D5" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F5" s="9"/>
+      <c r="F5" s="7"/>
     </row>
     <row r="6" ht="62.4" spans="1:6">
       <c r="A6" s="5"/>
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C6" s="7" t="s">
+      <c r="C6" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D6" s="7" t="s">
+      <c r="D6" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="F6" s="9"/>
-    </row>
-    <row r="7" spans="1:6">
+      <c r="F6" s="7"/>
+    </row>
+    <row r="7" ht="31.2" spans="1:6">
       <c r="A7" s="5"/>
-      <c r="B7" s="6" t="s">
+      <c r="B7" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="F7" s="10"/>
-    </row>
-    <row r="8" spans="1:2">
+      <c r="C7" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="F7" s="9"/>
+    </row>
+    <row r="8" ht="31.2" spans="1:4">
       <c r="A8" s="5"/>
-      <c r="B8" s="6" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
+      <c r="B8" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" s="10"/>
+    </row>
+    <row r="9" ht="62.4" spans="1:3">
       <c r="A9" s="5"/>
-      <c r="B9" s="6" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
+      <c r="B9" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="10" ht="93.6" spans="1:3">
       <c r="A10" s="5"/>
-      <c r="B10" s="6" t="s">
-        <v>23</v>
+      <c r="B10" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="5"/>
-      <c r="B11" s="6" t="s">
-        <v>24</v>
+      <c r="B11" s="1" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="5"/>
-      <c r="B12" s="6" t="s">
-        <v>25</v>
+      <c r="B12" s="1" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="5"/>
-      <c r="B13" s="6" t="s">
-        <v>26</v>
+      <c r="B13" s="1" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="5"/>
-      <c r="B14" s="6" t="s">
-        <v>27</v>
+      <c r="B14" s="1" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="5"/>
-      <c r="B15" s="6" t="s">
-        <v>28</v>
+      <c r="B15" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="5"/>
-      <c r="B16" s="6" t="s">
-        <v>29</v>
+      <c r="B16" s="1" t="s">
+        <v>34</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="6">
     <mergeCell ref="C1:D1"/>
     <mergeCell ref="E1:F1"/>
     <mergeCell ref="A3:A16"/>
+    <mergeCell ref="D7:D8"/>
     <mergeCell ref="F3:F7"/>
     <mergeCell ref="A1:B2"/>
   </mergeCells>

--- a/学习日志.xlsx
+++ b/学习日志.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="63">
   <si>
     <t>日期</t>
   </si>
@@ -128,22 +128,115 @@
 自动装箱和拆箱, 为什么静态方法中调用非静态成员是非法的.</t>
   </si>
   <si>
+    <t>复习spring整合mybatis.
+练习:
+模拟下单, 减库存+增加订单操作, 增加事务.</t>
+  </si>
+  <si>
     <t>26日</t>
   </si>
   <si>
+    <t>复习18-25日内容.
+接口和抽象类的区别.</t>
+  </si>
+  <si>
+    <t>springboot入门</t>
+  </si>
+  <si>
+    <t>SpringBoot框架学习</t>
+  </si>
+  <si>
     <t>27日</t>
   </si>
   <si>
+    <t>复习接口和抽象类的区别.
+成员变量和局部变量的区别.</t>
+  </si>
+  <si>
+    <t>了解项目, 明确学习方向</t>
+  </si>
+  <si>
     <t>28日</t>
   </si>
   <si>
+    <t>复习26-27内容.
+创建对象的运算符, 对象引用和对象实例的区别.
+方法的返回值是什么, 作用.</t>
+  </si>
+  <si>
     <t>29日</t>
   </si>
   <si>
     <t>30日</t>
   </si>
   <si>
+    <t>复习18-28日内容.
+构造方法的作用和特点.</t>
+  </si>
+  <si>
+    <t>spring&amp;springboot注解</t>
+  </si>
+  <si>
     <t>31日</t>
+  </si>
+  <si>
+    <t>复习26-30日内容.
+静态方法和实例方法的区别. 对象相等和对象引用相等的区别. 调用子类构造方法前调用父类无参构造方法的目的.</t>
+  </si>
+  <si>
+    <t>1日</t>
+  </si>
+  <si>
+    <t>复习30-31日内容.
+==和equals的区别.</t>
+  </si>
+  <si>
+    <t>2日</t>
+  </si>
+  <si>
+    <t>3日</t>
+  </si>
+  <si>
+    <t>4日</t>
+  </si>
+  <si>
+    <t>5日</t>
+  </si>
+  <si>
+    <t>6日</t>
+  </si>
+  <si>
+    <t>7日</t>
+  </si>
+  <si>
+    <t>8日</t>
+  </si>
+  <si>
+    <t>9日</t>
+  </si>
+  <si>
+    <t>10日</t>
+  </si>
+  <si>
+    <t>11日</t>
+  </si>
+  <si>
+    <t>12日</t>
+  </si>
+  <si>
+    <t>13日</t>
+  </si>
+  <si>
+    <t>14日</t>
+  </si>
+  <si>
+    <t>15日</t>
+  </si>
+  <si>
+    <t>16日</t>
+  </si>
+  <si>
+    <t>17日</t>
   </si>
 </sst>
 </file>
@@ -152,9 +245,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -181,6 +274,28 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="等线"/>
       <charset val="0"/>
@@ -202,21 +317,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -295,7 +396,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -309,16 +410,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -333,187 +426,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -579,15 +672,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -599,6 +683,15 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -651,6 +744,17 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -665,27 +769,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -694,36 +787,33 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -733,98 +823,101 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="23" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="23" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -851,10 +944,19 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="57" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="57" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="57" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1175,17 +1277,17 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F16"/>
+  <dimension ref="A1:F47"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" outlineLevelCol="5"/>
   <cols>
     <col min="1" max="1" width="13.8888888888889" style="1" customWidth="1"/>
     <col min="2" max="2" width="5.44444444444444" style="1" customWidth="1"/>
-    <col min="3" max="3" width="26.8611111111111" style="2" customWidth="1"/>
+    <col min="3" max="3" width="33.5185185185185" style="2" customWidth="1"/>
     <col min="4" max="4" width="59.4166666666667" style="2" customWidth="1"/>
     <col min="5" max="5" width="35.7407407407407" style="1" customWidth="1"/>
     <col min="6" max="6" width="25.3333333333333" style="1" customWidth="1"/>
@@ -1292,9 +1394,9 @@
       <c r="D7" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="F7" s="9"/>
-    </row>
-    <row r="8" ht="31.2" spans="1:4">
+      <c r="F7" s="7"/>
+    </row>
+    <row r="8" ht="31.2" spans="1:6">
       <c r="A8" s="5"/>
       <c r="B8" s="1" t="s">
         <v>23</v>
@@ -1302,9 +1404,10 @@
       <c r="C8" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="D8" s="10"/>
-    </row>
-    <row r="9" ht="62.4" spans="1:3">
+      <c r="D8" s="9"/>
+      <c r="F8" s="7"/>
+    </row>
+    <row r="9" ht="46.8" spans="1:6">
       <c r="A9" s="5"/>
       <c r="B9" s="1" t="s">
         <v>25</v>
@@ -1312,8 +1415,9 @@
       <c r="C9" s="2" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="10" ht="93.6" spans="1:3">
+      <c r="F9" s="7"/>
+    </row>
+    <row r="10" ht="78" spans="1:6">
       <c r="A10" s="5"/>
       <c r="B10" s="1" t="s">
         <v>27</v>
@@ -1321,50 +1425,273 @@
       <c r="C10" s="2" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="11" spans="1:2">
+      <c r="D10" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F10" s="10"/>
+    </row>
+    <row r="11" ht="31.2" spans="1:6">
       <c r="A11" s="5"/>
       <c r="B11" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
+        <v>30</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="12" ht="31.2" spans="1:4">
       <c r="A12" s="5"/>
       <c r="B12" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
+        <v>34</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="13" ht="62.4" spans="1:3">
       <c r="A13" s="5"/>
       <c r="B13" s="1" t="s">
-        <v>31</v>
+        <v>37</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="5"/>
       <c r="B14" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="15" ht="31.2" spans="1:4">
       <c r="A15" s="5"/>
       <c r="B15" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2">
+        <v>40</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="16" ht="78" spans="1:3">
       <c r="A16" s="5"/>
       <c r="B16" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="17" ht="31.2" spans="1:3">
+      <c r="A17" s="11">
+        <v>44562</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" s="12"/>
+      <c r="B18" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" s="12"/>
+      <c r="B19" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" s="12"/>
+      <c r="B20" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" s="12"/>
+      <c r="B21" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" s="12"/>
+      <c r="B22" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" s="12"/>
+      <c r="B23" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" s="12"/>
+      <c r="B24" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" s="12"/>
+      <c r="B25" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" s="12"/>
+      <c r="B26" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" s="12"/>
+      <c r="B27" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28" s="12"/>
+      <c r="B28" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29" s="12"/>
+      <c r="B29" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30" s="12"/>
+      <c r="B30" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31" s="12"/>
+      <c r="B31" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
+      <c r="A32" s="12"/>
+      <c r="B32" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33" s="12"/>
+      <c r="B33" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
+      <c r="A34" s="12"/>
+      <c r="B34" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2">
+      <c r="A35" s="12"/>
+      <c r="B35" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2">
+      <c r="A36" s="12"/>
+      <c r="B36" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2">
+      <c r="A37" s="12"/>
+      <c r="B37" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2">
+      <c r="A38" s="12"/>
+      <c r="B38" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2">
+      <c r="A39" s="12"/>
+      <c r="B39" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2">
+      <c r="A40" s="12"/>
+      <c r="B40" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2">
+      <c r="A41" s="12"/>
+      <c r="B41" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2">
+      <c r="A42" s="12"/>
+      <c r="B42" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2">
+      <c r="A43" s="12"/>
+      <c r="B43" s="1" t="s">
         <v>34</v>
       </c>
     </row>
+    <row r="44" spans="1:2">
+      <c r="A44" s="12"/>
+      <c r="B44" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2">
+      <c r="A45" s="12"/>
+      <c r="B45" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2">
+      <c r="A46" s="12"/>
+      <c r="B46" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2">
+      <c r="A47" s="13"/>
+      <c r="B47" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="7">
     <mergeCell ref="C1:D1"/>
     <mergeCell ref="E1:F1"/>
     <mergeCell ref="A3:A16"/>
+    <mergeCell ref="A17:A47"/>
     <mergeCell ref="D7:D8"/>
-    <mergeCell ref="F3:F7"/>
+    <mergeCell ref="F3:F10"/>
     <mergeCell ref="A1:B2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
